--- a/Pruebas Experimentales/Prueba Temperatura/Prueba 19C/PRUEBA_TEMPERATURA_23_19C.xlsx
+++ b/Pruebas Experimentales/Prueba Temperatura/Prueba 19C/PRUEBA_TEMPERATURA_23_19C.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Datos crudos" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t>Timestamp</t>
   </si>
@@ -73,112 +73,121 @@
     <t>Temperature</t>
   </si>
   <si>
-    <t>2023-12-09 04:29:23</t>
-  </si>
-  <si>
-    <t>2023-12-09 04:30:24</t>
-  </si>
-  <si>
-    <t>2023-12-09 04:31:26</t>
-  </si>
-  <si>
-    <t>2023-12-09 04:32:28</t>
-  </si>
-  <si>
-    <t>2023-12-09 04:33:29</t>
-  </si>
-  <si>
-    <t>2023-12-09 04:34:31</t>
-  </si>
-  <si>
-    <t>2023-12-09 04:35:33</t>
-  </si>
-  <si>
-    <t>2023-12-09 04:36:35</t>
-  </si>
-  <si>
-    <t>2023-12-09 04:37:36</t>
-  </si>
-  <si>
-    <t>2023-12-09 04:38:38</t>
-  </si>
-  <si>
-    <t>2023-12-09 04:39:40</t>
-  </si>
-  <si>
-    <t>2023-12-09 04:40:42</t>
-  </si>
-  <si>
-    <t>2023-12-09 04:41:43</t>
-  </si>
-  <si>
-    <t>2023-12-09 04:42:45</t>
-  </si>
-  <si>
-    <t>2023-12-09 04:43:47</t>
-  </si>
-  <si>
-    <t>2023-12-09 04:44:49</t>
-  </si>
-  <si>
-    <t>2023-12-09 04:45:50</t>
-  </si>
-  <si>
-    <t>2023-12-09 04:46:52</t>
-  </si>
-  <si>
-    <t>2023-12-09 04:47:54</t>
-  </si>
-  <si>
-    <t>2023-12-09 04:48:56</t>
-  </si>
-  <si>
-    <t>2023-12-09 04:49:57</t>
-  </si>
-  <si>
-    <t>2023-12-09 04:50:59</t>
-  </si>
-  <si>
-    <t>2023-12-09 04:52:01</t>
-  </si>
-  <si>
-    <t>2023-12-09 04:53:03</t>
-  </si>
-  <si>
-    <t>2023-12-09 04:54:04</t>
-  </si>
-  <si>
-    <t>2023-12-09 04:55:06</t>
-  </si>
-  <si>
-    <t>2023-12-09 04:56:08</t>
-  </si>
-  <si>
-    <t>2023-12-09 04:57:10</t>
-  </si>
-  <si>
-    <t>2023-12-09 04:58:11</t>
-  </si>
-  <si>
-    <t>2023-12-09 04:59:13</t>
-  </si>
-  <si>
-    <t>2023-12-09 05:00:15</t>
-  </si>
-  <si>
-    <t>2023-12-09 05:01:17</t>
-  </si>
-  <si>
-    <t>2023-12-09 05:02:18</t>
-  </si>
-  <si>
-    <t>2023-12-09 05:03:20</t>
-  </si>
-  <si>
-    <t>2023-12-09 05:04:22</t>
-  </si>
-  <si>
-    <t>2023-12-09 05:05:23</t>
+    <t>2023-12-11 23:54:44</t>
+  </si>
+  <si>
+    <t>2023-12-11 23:55:45</t>
+  </si>
+  <si>
+    <t>2023-12-11 23:56:47</t>
+  </si>
+  <si>
+    <t>2023-12-11 23:57:49</t>
+  </si>
+  <si>
+    <t>2023-12-11 23:58:51</t>
+  </si>
+  <si>
+    <t>2023-12-11 23:59:53</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:00:55</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:01:57</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:02:59</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:04:01</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:05:03</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:06:05</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:07:07</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:08:09</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:09:11</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:10:13</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:11:15</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:12:17</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:13:19</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:14:21</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:15:23</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:16:25</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:17:27</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:18:29</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:19:31</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:20:33</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:21:35</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:22:37</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:23:39</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:24:41</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:25:43</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:26:45</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:27:47</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:28:49</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:29:51</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:30:53</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:31:55</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:32:57</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:33:58</t>
   </si>
 </sst>
 </file>
@@ -845,117 +854,126 @@
           </c:trendline>
           <c:yVal>
             <c:numRef>
-              <c:f>'Datos crudos'!$E$2:$E$37</c:f>
+              <c:f>'Datos crudos'!$E$2:$E$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
+                  <c:v>25.935314685314701</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>25.1486013986014</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>24.493006993006901</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.526223776223699</c:v>
+                  <c:v>24.230769230769202</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.132867132867101</c:v>
+                  <c:v>22.788461538461501</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>22.6573426573426</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.263986013985999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22.0017482517482</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22.0017482517482</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21.608391608391599</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21.346153846153801</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>21.870629370629299</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>21.608391608391599</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
                   <c:v>21.346153846153801</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="12">
                   <c:v>21.215034965034899</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="13">
                   <c:v>21.346153846153801</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>21.215034965034899</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>21.346153846153801</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>21.083916083916101</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>20.821678321678299</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>20.690559440559401</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>20.690559440559401</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>20.821678321678299</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>20.5594405594405</c:v>
+                  <c:v>21.083916083916101</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>20.821678321678299</c:v>
+                  <c:v>21.215034965034899</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>21.215034965034899</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>21.346153846153801</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21.083916083916101</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>20.821678321678299</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
+                  <c:v>20.821678321678299</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>21.477272727272702</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>21.346153846153801</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>20.821678321678299</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>20.5594405594405</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>20.5594405594405</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>20.2972027972028</c:v>
-                </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="27">
+                  <c:v>21.346153846153801</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>21.083916083916101</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>21.083916083916101</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>20.690559440559401</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>20.821678321678299</c:v>
                 </c:pt>
-                <c:pt idx="24">
-                  <c:v>20.5594405594405</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>20.5594405594405</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>20.428321678321701</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>20.5594405594405</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>20.428321678321701</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>20.5594405594405</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>20.2972027972028</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>20.5594405594405</c:v>
-                </c:pt>
                 <c:pt idx="32">
-                  <c:v>20.428321678321701</c:v>
+                  <c:v>21.083916083916101</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>20.821678321678299</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>20.428321678321701</c:v>
+                  <c:v>21.083916083916101</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>20.5594405594405</c:v>
+                  <c:v>20.9527972027972</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20.821678321678299</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>21.346153846153801</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>22.0017482517482</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1215,34 +1233,34 @@
                   <c:v>20.5594405594405</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.428321678321701</c:v>
+                  <c:v>21.346153846153801</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.5594405594405</c:v>
+                  <c:v>21.083916083916101</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.428321678321701</c:v>
+                  <c:v>21.083916083916101</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.5594405594405</c:v>
+                  <c:v>20.690559440559401</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.2972027972028</c:v>
+                  <c:v>20.821678321678299</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20.5594405594405</c:v>
+                  <c:v>21.083916083916101</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20.428321678321701</c:v>
+                  <c:v>20.821678321678299</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>21.083916083916101</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.9527972027972</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>20.821678321678299</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>20.428321678321701</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>20.5594405594405</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1339,10 +1357,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>20.511760966306401</c:v>
+                  <c:v>20.940877304513656</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.511760966306401</c:v>
+                  <c:v>20.940877304513656</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3064,9 +3082,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -3113,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>25.1486013986014</v>
+        <v>25.935314685314701</v>
       </c>
       <c r="G2" t="s">
         <v>2</v>
@@ -3123,7 +3141,7 @@
       </c>
       <c r="I2" s="4">
         <f>INDEX(C:C,H2)-C2</f>
-        <v>9.2824074090458453E-3</v>
+        <v>9.3171296248328872E-3</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -3140,14 +3158,14 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>24.493006993006901</v>
+        <v>25.1486013986014</v>
       </c>
       <c r="G3" t="s">
         <v>3</v>
       </c>
       <c r="H3">
-        <f>COUNT(E:E)</f>
-        <v>36</v>
+        <f>COUNT(E:E)-2</f>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -3164,7 +3182,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>22.526223776223699</v>
+        <v>24.230769230769202</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -3181,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>22.132867132867101</v>
+        <v>22.788461538461501</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -3198,7 +3216,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>21.870629370629299</v>
+        <v>22.6573426573426</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -3215,7 +3233,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>21.608391608391599</v>
+        <v>22.263986013985999</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3232,7 +3250,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="3">
-        <v>21.346153846153801</v>
+        <v>22.0017482517482</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -3249,7 +3267,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>21.215034965034899</v>
+        <v>22.0017482517482</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -3266,7 +3284,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>21.346153846153801</v>
+        <v>21.608391608391599</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -3283,7 +3301,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>21.215034965034899</v>
+        <v>21.346153846153801</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -3300,7 +3318,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>21.346153846153801</v>
+        <v>21.870629370629299</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -3317,7 +3335,7 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>21.083916083916101</v>
+        <v>21.346153846153801</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -3334,7 +3352,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>20.821678321678299</v>
+        <v>21.215034965034899</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -3351,7 +3369,7 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>20.690559440559401</v>
+        <v>21.346153846153801</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -3368,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>20.690559440559401</v>
+        <v>21.083916083916101</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -3402,7 +3420,7 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>20.5594405594405</v>
+        <v>21.083916083916101</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -3419,7 +3437,7 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>20.821678321678299</v>
+        <v>21.215034965034899</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -3453,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>20.821678321678299</v>
+        <v>21.346153846153801</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -3470,7 +3488,7 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>20.5594405594405</v>
+        <v>21.083916083916101</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -3487,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>20.5594405594405</v>
+        <v>20.821678321678299</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -3504,7 +3522,7 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>20.2972027972028</v>
+        <v>20.821678321678299</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -3521,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>20.821678321678299</v>
+        <v>21.477272727272702</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -3538,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>20.5594405594405</v>
+        <v>21.346153846153801</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -3555,7 +3573,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>20.5594405594405</v>
+        <v>20.821678321678299</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -3572,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>20.428321678321701</v>
+        <v>20.5594405594405</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -3589,7 +3607,7 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>20.5594405594405</v>
+        <v>21.346153846153801</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -3606,7 +3624,7 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>20.428321678321701</v>
+        <v>21.083916083916101</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -3623,7 +3641,7 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>20.5594405594405</v>
+        <v>21.083916083916101</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -3640,7 +3658,7 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>20.2972027972028</v>
+        <v>20.690559440559401</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -3657,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>20.5594405594405</v>
+        <v>20.821678321678299</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -3674,7 +3692,7 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>20.428321678321701</v>
+        <v>21.083916083916101</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -3708,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>20.428321678321701</v>
+        <v>21.083916083916101</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -3725,7 +3743,58 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>20.5594405594405</v>
+        <v>20.9527972027972</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>23</v>
+      </c>
+      <c r="B38">
+        <v>19</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>20.821678321678299</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>23</v>
+      </c>
+      <c r="B39">
+        <v>19</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>21.346153846153801</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>23</v>
+      </c>
+      <c r="B40">
+        <v>19</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>22.0017482517482</v>
       </c>
     </row>
   </sheetData>
@@ -3738,8 +3807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3764,7 +3833,7 @@
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A2)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 04:55:06</v>
+        <v>2023-12-12 00:21:35</v>
       </c>
       <c r="B2">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A2)-ROW($A$2)-9),"")</f>
@@ -3775,34 +3844,34 @@
       </c>
       <c r="E2">
         <f>AVERAGE(B:B)</f>
-        <v>20.511760966306401</v>
+        <v>20.940877304513656</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A3)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 04:56:08</v>
+        <v>2023-12-12 00:22:37</v>
       </c>
       <c r="B3">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A3)-ROW($A$2)-9),"")</f>
-        <v>20.428321678321701</v>
+        <v>21.346153846153801</v>
       </c>
       <c r="D3">
         <v>11</v>
       </c>
       <c r="E3">
         <f>AVERAGE(B:B)</f>
-        <v>20.511760966306401</v>
+        <v>20.940877304513656</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A4)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 04:57:10</v>
+        <v>2023-12-12 00:23:39</v>
       </c>
       <c r="B4">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A4)-ROW($A$2)-9),"")</f>
-        <v>20.5594405594405</v>
+        <v>21.083916083916101</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>6</v>
@@ -3811,35 +3880,35 @@
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A5)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 04:58:11</v>
+        <v>2023-12-12 00:24:41</v>
       </c>
       <c r="B5">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A5)-ROW($A$2)-9),"")</f>
-        <v>20.428321678321701</v>
+        <v>21.083916083916101</v>
       </c>
       <c r="E5">
         <f>_xlfn.STDEV.S(B:B)</f>
-        <v>0.13464737361513623</v>
+        <v>0.22293715366986896</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A6)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 04:59:13</v>
+        <v>2023-12-12 00:25:43</v>
       </c>
       <c r="B6">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A6)-ROW($A$2)-9),"")</f>
-        <v>20.5594405594405</v>
+        <v>20.690559440559401</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A7)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 05:00:15</v>
+        <v>2023-12-12 00:26:45</v>
       </c>
       <c r="B7">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A7)-ROW($A$2)-9),"")</f>
-        <v>20.2972027972028</v>
+        <v>20.821678321678299</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>7</v>
@@ -3848,36 +3917,36 @@
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A8)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 05:01:17</v>
+        <v>2023-12-12 00:27:47</v>
       </c>
       <c r="B8">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A8)-ROW($A$2)-9),"")</f>
-        <v>20.5594405594405</v>
+        <v>21.083916083916101</v>
       </c>
       <c r="E8">
         <f>MAX(B:B)</f>
-        <v>20.821678321678299</v>
+        <v>21.346153846153801</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A9)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 05:02:18</v>
+        <v>2023-12-12 00:28:49</v>
       </c>
       <c r="B9">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A9)-ROW($A$2)-9),"")</f>
-        <v>20.428321678321701</v>
+        <v>20.821678321678299</v>
       </c>
       <c r="K9" s="3"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A10)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 05:03:20</v>
+        <v>2023-12-12 00:29:51</v>
       </c>
       <c r="B10">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A10)-ROW($A$2)-9),"")</f>
-        <v>20.821678321678299</v>
+        <v>21.083916083916101</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>8</v>
@@ -3886,25 +3955,25 @@
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A11)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 05:04:22</v>
+        <v>2023-12-12 00:30:53</v>
       </c>
       <c r="B11">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A11)-ROW($A$2)-9),"")</f>
-        <v>20.428321678321701</v>
+        <v>20.9527972027972</v>
       </c>
       <c r="E11">
         <f>MIN(B:B)</f>
-        <v>20.2972027972028</v>
+        <v>20.5594405594405</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A12)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 05:05:23</v>
+        <v>2023-12-12 00:31:55</v>
       </c>
       <c r="B12">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A12)-ROW($A$2)-9),"")</f>
-        <v>20.5594405594405</v>
+        <v>20.821678321678299</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
